--- a/nlp/data/accuracy/Accuracy Proxymus.xlsx
+++ b/nlp/data/accuracy/Accuracy Proxymus.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnun365-my.sharepoint.com/personal/sfigueroa_tecnun_es/Documents/3. AUTO-APRENDIZAJE/00. MENTORSHIP LINUX FOUNDATION/06. ENTREGABLES/06. Accuracy NLP Engine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{E2AD109B-E636-40B7-9CDA-39793ECF52C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37242375-5180-4753-9E7B-7DD0A9AB8BF0}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{E2AD109B-E636-40B7-9CDA-39793ECF52C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73476260-7B93-49DD-AE50-6C1CB33B4956}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8810" yWindow="0" windowWidth="10360" windowHeight="7550" xr2:uid="{D0A88E05-6391-47B7-8A4A-BD7DF70C3085}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D0A88E05-6391-47B7-8A4A-BD7DF70C3085}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="variations-approach" sheetId="2" r:id="rId1"/>
+    <sheet name="symbol-approach" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
   <si>
     <t>Sub-article</t>
   </si>
@@ -88,6 +89,63 @@
   </si>
   <si>
     <t>Results excluding header detection errors</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Human eye verification</t>
+  </si>
+  <si>
+    <t>Verification in RAOT.json</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Observed Error</t>
+  </si>
+  <si>
+    <t>Starting Dates</t>
+  </si>
+  <si>
+    <t>number of variables detected</t>
+  </si>
+  <si>
+    <t>number of standard clauses</t>
+  </si>
+  <si>
+    <t>number of variations</t>
+  </si>
+  <si>
+    <t>number of custom texts</t>
+  </si>
+  <si>
+    <t>Similarity computations needed</t>
+  </si>
+  <si>
+    <t>Data Privacy</t>
+  </si>
+  <si>
+    <t>Header detection</t>
+  </si>
+  <si>
+    <t>Fraud Prevention</t>
+  </si>
+  <si>
+    <t>Entity detection error</t>
+  </si>
+  <si>
+    <t>Liability of the Parties</t>
+  </si>
+  <si>
+    <t>Suspension of Services</t>
   </si>
 </sst>
 </file>
@@ -111,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,8 +188,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -148,11 +212,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,16 +306,67 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,11 +685,437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497F2AE3-E8DA-4362-8513-2797B4267168}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="28">
+        <v>2</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="30">
+        <v>0</v>
+      </c>
+      <c r="E2" s="30">
+        <v>0</v>
+      </c>
+      <c r="F2" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="36">
+        <v>0</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="32">
+        <v>12</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="39">
+        <v>0</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9" s="37">
+        <v>1</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="32">
+        <v>13</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+      <c r="F13" s="37">
+        <v>1</v>
+      </c>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="38">
+        <v>14</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="41">
+        <v>1</v>
+      </c>
+      <c r="E14" s="42">
+        <v>2</v>
+      </c>
+      <c r="F14" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="39">
+        <v>0</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0</v>
+      </c>
+      <c r="F17" s="37">
+        <v>1</v>
+      </c>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="38">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="41">
+        <v>6</v>
+      </c>
+      <c r="E18" s="42">
+        <v>5</v>
+      </c>
+      <c r="F18" s="43">
+        <v>0.83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="39">
+        <v>0</v>
+      </c>
+      <c r="E21" s="36">
+        <v>0</v>
+      </c>
+      <c r="F21" s="37">
+        <v>1</v>
+      </c>
+      <c r="G21" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C8BAB4-5F62-4C64-804C-91F5B3A21261}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2009,7 +2586,7 @@
       <c r="A75" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="21"/>
     </row>
     <row r="76" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="s">
@@ -2028,11 +2605,11 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
     </row>
     <row r="80" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="s">
@@ -2052,12 +2629,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A79:C79"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="F24:F26"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A79:C79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/nlp/data/accuracy/Accuracy Proxymus.xlsx
+++ b/nlp/data/accuracy/Accuracy Proxymus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnun365-my.sharepoint.com/personal/sfigueroa_tecnun_es/Documents/3. AUTO-APRENDIZAJE/00. MENTORSHIP LINUX FOUNDATION/06. ENTREGABLES/06. Accuracy NLP Engine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{E2AD109B-E636-40B7-9CDA-39793ECF52C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73476260-7B93-49DD-AE50-6C1CB33B4956}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{E2AD109B-E636-40B7-9CDA-39793ECF52C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{898779BD-417F-4860-9648-E6CB7D65ED35}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D0A88E05-6391-47B7-8A4A-BD7DF70C3085}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="variations-approach" sheetId="2" r:id="rId1"/>
     <sheet name="symbol-approach" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,11 +35,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Human eye verification</t>
+  </si>
+  <si>
+    <t>Verification in RAOT.json</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Observed Error</t>
+  </si>
+  <si>
+    <t>Starting Dates</t>
+  </si>
+  <si>
+    <t>number of variables detected</t>
+  </si>
+  <si>
+    <t>number of standard clauses</t>
+  </si>
+  <si>
+    <t>number of variations</t>
+  </si>
+  <si>
+    <t>number of custom texts</t>
+  </si>
+  <si>
+    <t>Data Privacy</t>
+  </si>
+  <si>
+    <t>Header detected</t>
+  </si>
+  <si>
+    <t>Characters detected</t>
+  </si>
+  <si>
+    <t>Fraud Prevention</t>
+  </si>
+  <si>
+    <t>Entity detection</t>
+  </si>
+  <si>
+    <t>Liability of the Parties</t>
+  </si>
+  <si>
+    <t>Suspension of Services</t>
+  </si>
   <si>
     <t>Sub-article</t>
   </si>
   <si>
+    <t>Common (%)</t>
+  </si>
+  <si>
+    <t>Difference (%)</t>
+  </si>
+  <si>
     <t>Common (symbols)</t>
   </si>
   <si>
@@ -58,6 +121,9 @@
     <t>Difference lies in '\n' characters</t>
   </si>
   <si>
+    <t>Difference lies in the "\n" characters and in the fact that the NLP engine included the document header erroneously.</t>
+  </si>
+  <si>
     <t>NLP engine fail when join this two articles</t>
   </si>
   <si>
@@ -67,92 +133,26 @@
     <t>Difference lies in '\n' characters and other characters</t>
   </si>
   <si>
-    <t>Common (%)</t>
-  </si>
-  <si>
-    <t>Difference (%)</t>
+    <t>Difference lies in the "\n" characters and in the fact that the NLP engine fail detecting next chapter.</t>
   </si>
   <si>
     <t>Results</t>
   </si>
   <si>
+    <t>Good</t>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Difference lies in the "\n" characters and in the fact that the NLP engine included the document header erroneously.</t>
-  </si>
-  <si>
-    <t>Difference lies in the "\n" characters and in the fact that the NLP engine fail detecting next chapter.</t>
-  </si>
-  <si>
     <t>Results excluding header detection errors</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Human eye verification</t>
-  </si>
-  <si>
-    <t>Verification in RAOT.json</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Observed Error</t>
-  </si>
-  <si>
-    <t>Starting Dates</t>
-  </si>
-  <si>
-    <t>number of variables detected</t>
-  </si>
-  <si>
-    <t>number of standard clauses</t>
-  </si>
-  <si>
-    <t>number of variations</t>
-  </si>
-  <si>
-    <t>number of custom texts</t>
-  </si>
-  <si>
-    <t>Similarity computations needed</t>
-  </si>
-  <si>
-    <t>Data Privacy</t>
-  </si>
-  <si>
-    <t>Header detection</t>
-  </si>
-  <si>
-    <t>Fraud Prevention</t>
-  </si>
-  <si>
-    <t>Entity detection error</t>
-  </si>
-  <si>
-    <t>Liability of the Parties</t>
-  </si>
-  <si>
-    <t>Suspension of Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,9 +257,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,15 +304,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,9 +311,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -341,9 +326,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,9 +333,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,6 +345,27 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,409 +689,405 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="28">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="30">
-        <v>0</v>
-      </c>
-      <c r="E2" s="30">
-        <v>0</v>
-      </c>
-      <c r="F2" s="31">
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="40">
+        <v>2</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0</v>
+      </c>
+      <c r="F2" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" s="27">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="33">
+      <c r="E3" s="27">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
+      <c r="F3" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
       <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28">
         <v>1</v>
       </c>
-      <c r="F4" s="33">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="36">
-        <v>0</v>
-      </c>
-      <c r="E5" s="36">
-        <v>0</v>
-      </c>
-      <c r="F5" s="37">
-        <v>0</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="32">
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="38">
         <v>12</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>31</v>
+      <c r="B6" s="37" t="s">
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
+        <v>8</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
         <v>2</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="28">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
       <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="27">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="27">
         <v>1</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="28">
         <v>0.5</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="27">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="27">
         <v>2</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="28">
         <v>0.5</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="39">
-        <v>0</v>
-      </c>
-      <c r="E9" s="36">
-        <v>0</v>
-      </c>
-      <c r="F9" s="37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="31">
         <v>1</v>
       </c>
-      <c r="G9" s="35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="32">
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="38">
         <v>13</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>33</v>
+      <c r="B10" s="37" t="s">
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="27">
         <v>2</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="28">
         <v>0.5</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
       <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="27">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="27">
         <v>1</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="39">
+    <row r="13" spans="1:7">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="32">
         <v>1</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="30">
         <v>1</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="31">
         <v>1</v>
       </c>
-      <c r="G13" s="35"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="38">
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="37">
         <v>14</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="41">
+      <c r="B14" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="34">
         <v>1</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="35">
         <v>2</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="28">
         <v>0.5</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="27">
         <v>2</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="27">
         <v>2</v>
       </c>
-      <c r="F16" s="33">
+      <c r="F16" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="39">
-        <v>0</v>
-      </c>
-      <c r="E17" s="36">
-        <v>0</v>
-      </c>
-      <c r="F17" s="37">
+    <row r="17" spans="1:7">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="32">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0</v>
+      </c>
+      <c r="F17" s="31">
         <v>1</v>
       </c>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="38">
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="37">
         <v>17</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="41">
+      <c r="B18" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="34">
         <v>6</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="35">
         <v>5</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="36">
         <v>0.83</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="33">
+      <c r="E19" s="27">
+        <v>0</v>
+      </c>
+      <c r="F19" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="27">
         <v>4</v>
       </c>
-      <c r="F20" s="33">
+      <c r="F20" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="39">
-        <v>0</v>
-      </c>
-      <c r="E21" s="36">
-        <v>0</v>
-      </c>
-      <c r="F21" s="37">
+    <row r="21" spans="1:7">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0</v>
+      </c>
+      <c r="E21" s="30">
+        <v>0</v>
+      </c>
+      <c r="F21" s="31">
         <v>1</v>
       </c>
-      <c r="G21" s="35"/>
+      <c r="G21" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1118,221 +1114,221 @@
       <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="110.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="110.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1">
       <c r="A2" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="27">
         <v>92.57</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="27">
         <v>7.43</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="27">
         <v>374</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="27">
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1.2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="27">
         <v>93.36</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="27">
         <v>6.64</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="27">
         <v>408</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="27">
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1.3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="27">
         <v>96.48</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="27">
         <v>3.52</v>
       </c>
       <c r="D4" s="1">
         <v>137</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="27">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1.4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="27">
         <v>97.02</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="27">
         <v>2.98</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="27">
         <v>456</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="27">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>1.5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="27">
         <v>94.24</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="27">
         <v>5.76</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="27">
         <v>278</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="27">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>1.6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="27">
         <v>96.92</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="27">
         <v>3.08</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="27">
         <v>220</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="27">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>1.7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="27">
         <v>94.43</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="27">
         <v>5.57</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="27">
         <v>356</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="27">
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>1.8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="27">
         <v>55.51</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="27">
         <v>44.49</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="27">
         <v>549</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="27">
         <v>440</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>2.1</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="27">
         <v>95.31</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="27">
         <v>4.6900000000000004</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="27">
         <v>203</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="27">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>3.1</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="27">
         <v>94.88</v>
       </c>
       <c r="C11" s="1">
@@ -1341,1289 +1337,1289 @@
       <c r="D11" s="1">
         <v>648</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="27">
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5">
         <v>3.2</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
         <v>100</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>112</v>
       </c>
-      <c r="F12" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="F12" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5">
         <v>3.3</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>41.79</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>58.21</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>112</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>156</v>
       </c>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="42"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>3.4</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="27">
         <v>95.36</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="27">
         <v>4.6399999999999997</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="27">
         <v>226</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="27">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5">
         <v>3.5</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
         <v>100</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
         <v>123</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+      <c r="F15" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5">
         <v>3.6</v>
       </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
         <v>100</v>
       </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
         <v>195</v>
       </c>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5">
         <v>3.69999999999999</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>14.44</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>85.56</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>144</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>853</v>
       </c>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+      <c r="F17" s="43"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5">
         <v>3.7999999999999901</v>
       </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
         <v>100</v>
       </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
         <v>179</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+      <c r="F18" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5">
         <v>3.9</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>60.26</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>39.74</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>417</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>275</v>
       </c>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2">
         <v>3.1</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="27">
         <v>94.23</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="27">
         <v>5.77</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="27">
         <v>98</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="27">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
         <v>3.11</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="27">
         <v>95.09</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="27">
         <v>4.91</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="27">
         <v>271</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="27">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
         <v>3.12</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="27">
         <v>94.12</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="27">
         <v>5.88</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="27">
         <v>192</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="27">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
         <v>3.13</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="27">
         <v>81.819999999999993</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="27">
         <v>18.18</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="27">
         <v>90</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="27">
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8">
         <v>3.14</v>
       </c>
-      <c r="B24" s="7">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
         <v>100</v>
       </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
         <v>121</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+      <c r="F24" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8">
         <v>3.15</v>
       </c>
-      <c r="B25" s="7">
-        <v>0</v>
-      </c>
-      <c r="C25" s="7">
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
         <v>100</v>
       </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
         <v>207</v>
       </c>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8">
         <v>3.16</v>
       </c>
-      <c r="B26" s="7">
-        <v>0</v>
-      </c>
-      <c r="C26" s="7">
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
         <v>100</v>
       </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
         <v>161</v>
       </c>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="27">
         <v>77.08</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="27">
         <v>22.92</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="27">
         <v>74</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="27">
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>32.94</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>67.06</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>196</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>399</v>
       </c>
-      <c r="F28" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+      <c r="F28" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5">
         <v>5.2</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>33.75</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>66.25</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>215</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>422</v>
       </c>
-      <c r="F29" s="22"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F29" s="42"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>6.1</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="27">
         <v>93.3</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="27">
         <v>6.7</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="27">
         <v>557</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="27">
         <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="5">
         <v>6.2</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>59.93</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>40.07</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>655</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>438</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F31" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>7.1</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="27">
         <v>96.24</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="27">
         <v>3.76</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="27">
         <v>205</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="27">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>7.2</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="27">
         <v>93.77</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="27">
         <v>6.23</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="27">
         <v>286</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="27">
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>8.1</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="27">
         <v>90.73</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="27">
         <v>9.27</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="27">
         <v>137</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="27">
         <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>9.1</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="27">
         <v>93.25</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="27">
         <v>6.75</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="27">
         <v>152</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="27">
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>10.1</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="27">
         <v>90.43</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="27">
         <v>9.57</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="27">
         <v>85</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="27">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>11.1</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="27">
         <v>87.68</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="27">
         <v>12.32</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="27">
         <v>306</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="27">
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="5">
         <v>11.2</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <v>68.48</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>31.52</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>1510</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>695</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+      <c r="F38" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5">
         <v>11.3</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <v>54.42</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>45.58</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>277</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>232</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F39" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>11.4</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="27">
         <v>96.2</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="27">
         <v>3.8</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="27">
         <v>228</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="27">
         <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>11.5</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="27">
         <v>91.64</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="27">
         <v>8.36</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="27">
         <v>548</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="27">
         <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>11.6</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="27">
         <v>96.85</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="27">
         <v>3.15</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="27">
         <v>554</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="27">
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>11.7</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="27">
         <v>94.61</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="27">
         <v>5.39</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="27">
         <v>193</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="27">
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>12.1</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="27">
         <v>94</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="27">
         <v>6</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="27">
         <v>235</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="27">
         <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5">
         <v>12.2</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <v>31.88</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>68.12</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>198</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>423</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F45" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>12.3</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="27">
         <v>89.78</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="27">
         <v>10.220000000000001</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="27">
         <v>123</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="27">
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>13.1</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="27">
         <v>96.41</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="27">
         <v>3.59</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="27">
         <v>295</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="27">
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>13.2</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="27">
         <v>93.37</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="27">
         <v>6.63</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="27">
         <v>1915</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="27">
         <v>136</v>
       </c>
       <c r="F48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5">
         <v>14.1</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <v>59.06</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>40.94</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>642</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>445</v>
       </c>
-      <c r="F49" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F49" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>14.2</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="27">
         <v>96.62</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="27">
         <v>3.38</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="27">
         <v>257</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="27">
         <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>14.3</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="27">
         <v>96.4</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="27">
         <v>3.6</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="27">
         <v>348</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="27">
         <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>14.4</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="27">
         <v>93.79</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="27">
         <v>6.21</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="27">
         <v>166</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="27">
         <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>15.1</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="27">
         <v>94.18</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="27">
         <v>5.82</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="27">
         <v>744</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="27">
         <v>46</v>
       </c>
       <c r="F53" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>15.2</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="27">
         <v>96.94</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="27">
         <v>3.06</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="27">
         <v>443</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="27">
         <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="5">
         <v>15.3</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <v>52.7</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>47.3</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>479</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>430</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F55" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>15.4</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="27">
         <v>92.79</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="27">
         <v>7.21</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="27">
         <v>193</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="27">
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>16.100000000000001</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="27">
         <v>96.59</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="27">
         <v>3.41</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="27">
         <v>1048</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="27">
         <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>16.2</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="27">
         <v>95.93</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="27">
         <v>4.07</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="27">
         <v>424</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="27">
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="27">
         <v>95.71</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="27">
         <v>4.29</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="27">
         <v>469</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="27">
         <v>21</v>
       </c>
       <c r="F59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="6">
         <v>75.88</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>24.12</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>1516</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>482</v>
       </c>
-      <c r="F60" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F60" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>18.2</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="27">
         <v>95.58</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="27">
         <v>4.42</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="27">
         <v>606</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="27">
         <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>19.100000000000001</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="27">
         <v>96.39</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="27">
         <v>3.61</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="27">
         <v>187</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="27">
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="5">
         <v>19.2</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="6">
         <v>78.430000000000007</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>21.57</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <v>1800</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <v>495</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F63" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>19.3</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="27">
         <v>96.78</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="27">
         <v>3.22</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="27">
         <v>631</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="27">
         <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="27">
         <v>95.91</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="27">
         <v>4.09</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="27">
         <v>352</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="27">
         <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="27">
         <v>96.14</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="27">
         <v>3.86</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="27">
         <v>997</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="27">
         <v>40</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>20.2</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="27">
         <v>93.3</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="27">
         <v>6.7</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="27">
         <v>181</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="27">
         <v>13</v>
       </c>
       <c r="F67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="5">
         <v>20.3</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="6">
         <v>47.55</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>52.45</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <v>407</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="6">
         <v>449</v>
       </c>
-      <c r="F68" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F68" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>20.399999999999999</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="27">
         <v>95.73</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="27">
         <v>4.2699999999999996</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="27">
         <v>493</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="27">
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>20.5</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="27">
         <v>93.25</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="27">
         <v>6.75</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="27">
         <v>152</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="27">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>20.6</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="27">
         <v>95.38</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="27">
         <v>4.62</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="27">
         <v>330</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="27">
         <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>20.7</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="27">
         <v>93.7</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="27">
         <v>6.3</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="27">
         <v>253</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="27">
         <v>17</v>
       </c>
       <c r="F72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15" thickBot="1">
+      <c r="A73" s="9">
         <v>21.1</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="10">
         <v>92.44</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="10">
         <v>7.56</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="10">
         <v>110</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="10">
         <v>9</v>
       </c>
-      <c r="F73" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="17"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="16"/>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="14">
+      <c r="F73" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickTop="1">
+      <c r="A74" s="16"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="15"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1">
+      <c r="A75" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="20"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickTop="1">
+      <c r="A76" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" s="13">
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="19">
+    <row r="77" spans="1:6">
+      <c r="A77" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="18">
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-    </row>
-    <row r="80" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="14">
+    <row r="79" spans="1:6" ht="15" thickBot="1">
+      <c r="A79" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" thickTop="1">
+      <c r="A80" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" s="13">
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B81" s="19">
+    <row r="81" spans="1:2">
+      <c r="A81" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="18">
         <v>14</v>
       </c>
     </row>
